--- a/personalia/template_xlsx/tmpEmp.xlsx
+++ b/personalia/template_xlsx/tmpEmp.xlsx
@@ -43,9 +43,6 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>GRUP</t>
-  </si>
-  <si>
     <t>NAMA</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>HP / TELEPHONE</t>
+  </si>
+  <si>
+    <t>LEADER</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Q3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,31 +556,31 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>8</v>
